--- a/Bias voltage.xlsx
+++ b/Bias voltage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5535633be59a0d3/Documents/GitHub/testinator-of-doom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8D452F94-77C6-4B64-8A47-C151FDE36CF4}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7D59AE27-074E-473A-96B7-44274762EB0C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +75,7 @@
     <t xml:space="preserve"> -c/m = thrrehasold</t>
   </si>
   <si>
-    <t>Threshold voltage</t>
+    <t>breakdown voltage</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1627,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bias voltage.xlsx
+++ b/Bias voltage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5535633be59a0d3/Documents/GitHub/testinator-of-doom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7D59AE27-074E-473A-96B7-44274762EB0C}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{23E1E60A-DFB8-410D-9591-6C998892C2F3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Votlage</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>breakdown voltage</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -285,40 +288,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>445830</c:v>
+                  <c:v>440851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>554009</c:v>
+                  <c:v>532972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>616745</c:v>
+                  <c:v>627607</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>844258</c:v>
+                  <c:v>864029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1290643</c:v>
+                  <c:v>1302979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1654860</c:v>
+                  <c:v>1662700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2088055</c:v>
+                  <c:v>2153865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2472121</c:v>
+                  <c:v>2492391</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2792097</c:v>
+                  <c:v>2916410</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3102179</c:v>
+                  <c:v>3329418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3569083</c:v>
+                  <c:v>3473600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4070231</c:v>
+                  <c:v>4232896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,45 +398,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$15</c:f>
+              <c:f>Sheet1!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>475620.87543173134</c:v>
+                  <c:v>452129.48540312797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>554022.39631803334</c:v>
+                  <c:v>534276.42172204703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>632423.91720433533</c:v>
+                  <c:v>616423.35804095119</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>867628.47986325622</c:v>
+                  <c:v>862864.16699769348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259636.0842947885</c:v>
+                  <c:v>1273598.848592259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1651643.6887263134</c:v>
+                  <c:v>1684333.5301868245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2043651.2931578457</c:v>
+                  <c:v>2095068.21178139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2435658.8975893706</c:v>
+                  <c:v>2505802.8933759555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2827666.5020209029</c:v>
+                  <c:v>2916537.574970521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3219674.1064524278</c:v>
+                  <c:v>3327272.2565650865</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3611681.7108839601</c:v>
+                  <c:v>3738006.9381596521</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4082090.8362017944</c:v>
+                  <c:v>4230888.5560731366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,7 +745,409 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>53.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.101043404683598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1694065488460802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2806618835611597E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16735051933586101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.181791763130874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.212940666801303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48412229043397798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36356284629543401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.638702846839039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72374057525507995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.08139675396051</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50022626529609804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09F8-43A1-9B24-E026CCFF308F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="197553343"/>
+        <c:axId val="197553759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="197553343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197553759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="197553759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197553343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1298,20 +1703,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:colOff>466724</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1331,6 +2252,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDEB30B6-C6DD-43BF-A897-5FA6A4DC9F53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1624,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,13 +2595,14 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1658,13 +2616,16 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1672,146 +2633,170 @@
         <v>53.1</v>
       </c>
       <c r="D4">
-        <v>445830</v>
+        <v>440851</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>6217</v>
       </c>
       <c r="F4">
+        <v>0.101043404683598</v>
+      </c>
+      <c r="G4">
         <v>40</v>
       </c>
-      <c r="G4">
-        <f ca="1">C4*$E$26 + $E$25</f>
-        <v>475620.87543173134</v>
+      <c r="H4">
+        <f t="shared" ref="H4:H15" ca="1" si="0">C4*$E$26 + $E$25</f>
+        <v>452129.48540312797</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>53.2</v>
       </c>
       <c r="D5">
-        <v>554009</v>
+        <v>532972</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2719</v>
       </c>
       <c r="F5">
+        <v>4.1694065488460802E-2</v>
+      </c>
+      <c r="G5">
         <v>40</v>
       </c>
-      <c r="G5">
-        <f t="shared" ref="G5:G15" ca="1" si="0">C5*$E$26 + $E$25</f>
-        <v>554022.39631803334</v>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>534276.42172204703</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>53.3</v>
       </c>
       <c r="D6">
-        <v>616745</v>
+        <v>627607</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>5132</v>
       </c>
       <c r="F6">
+        <v>7.2806618835611597E-2</v>
+      </c>
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>632423.91720433533</v>
+        <v>616423.35804095119</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>53.6</v>
       </c>
       <c r="D7">
-        <v>844258</v>
+        <v>864029</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>10652</v>
       </c>
       <c r="F7">
+        <v>0.16735051933586101</v>
+      </c>
+      <c r="G7">
         <v>40</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>867628.47986325622</v>
+        <v>862864.16699769348</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>54.1</v>
       </c>
       <c r="D8">
-        <v>1290643</v>
+        <v>1302979</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>17091</v>
       </c>
       <c r="F8">
+        <v>0.181791763130874</v>
+      </c>
+      <c r="G8">
         <v>40</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>1259636.0842947885</v>
+        <v>1273598.848592259</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>54.6</v>
       </c>
       <c r="D9">
-        <v>1654860</v>
+        <v>1662700</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>21369</v>
       </c>
       <c r="F9">
+        <v>0.212940666801303</v>
+      </c>
+      <c r="G9">
         <v>32</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>1651643.6887263134</v>
+        <v>1684333.5301868245</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>55.1</v>
       </c>
       <c r="D10">
-        <v>2088055</v>
+        <v>2153865</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>42663</v>
       </c>
       <c r="F10">
+        <v>0.48412229043397798</v>
+      </c>
+      <c r="G10">
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>2043651.2931578457</v>
+        <v>2095068.21178139</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>55.6</v>
       </c>
       <c r="D11">
-        <v>2472121</v>
+        <v>2492391</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>21950</v>
       </c>
       <c r="F11">
+        <v>0.36356284629543401</v>
+      </c>
+      <c r="G11">
         <v>32</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>2435658.8975893706</v>
+        <v>2505802.8933759555</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1819,71 +2804,83 @@
         <v>56.1</v>
       </c>
       <c r="D12">
-        <v>2792097</v>
+        <v>2916410</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>88320</v>
       </c>
       <c r="F12">
+        <v>0.638702846839039</v>
+      </c>
+      <c r="G12">
         <v>32</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>2827666.5020209029</v>
+        <v>2916537.574970521</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>56.6</v>
       </c>
       <c r="D13">
-        <v>3102179</v>
+        <v>3329418</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>73226</v>
       </c>
       <c r="F13">
+        <v>0.72374057525507995</v>
+      </c>
+      <c r="G13">
         <v>32</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>3219674.1064524278</v>
+        <v>3327272.2565650865</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>57.1</v>
       </c>
       <c r="D14">
-        <v>3569083</v>
+        <v>3473600</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>101637</v>
       </c>
       <c r="F14">
+        <v>1.08139675396051</v>
+      </c>
+      <c r="G14">
         <v>32</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>3611681.7108839601</v>
+        <v>3738006.9381596521</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>57.7</v>
       </c>
       <c r="D15">
-        <v>4070231</v>
+        <v>4232896</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>47548</v>
       </c>
       <c r="F15">
+        <v>0.50022626529609804</v>
+      </c>
+      <c r="G15">
         <v>32</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>4082090.8362017944</v>
+        <v>4230888.5560731366</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -1921,7 +2918,7 @@
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>273041445.57588309</v>
+        <v>21.305172905257692</v>
       </c>
       <c r="F22" t="str">
         <f ca="1"/>
@@ -1935,7 +2932,7 @@
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>0</v>
+        <v>1.9063263377583666E-2</v>
       </c>
       <c r="F23" t="str">
         <f ca="1"/>
@@ -1963,11 +2960,11 @@
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>-41155586.715196609</v>
+        <v>-43167893.699939728</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>82.671817019048888</v>
+        <v>285607.65591682366</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
@@ -1977,11 +2974,11 @@
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>784015.2088630572</v>
+        <v>821469.36318913102</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>1.5149602365564514</v>
+        <v>5358.9991927016235</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
@@ -2005,12 +3002,12 @@
       </c>
       <c r="E32">
         <f ca="1">-E25/E26</f>
-        <v>52.49335248850408</v>
+        <v>52.549608828200412</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Bias voltage.xlsx
+++ b/Bias voltage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5535633be59a0d3/Documents/GitHub/testinator-of-doom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{23E1E60A-DFB8-410D-9591-6C998892C2F3}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48C7F8C5-1E64-49D2-9C54-7E90E5F65D1D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -318,7 +318,7 @@
                   <c:v>3329418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3473600</c:v>
+                  <c:v>3554240</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4232896</c:v>
@@ -403,40 +403,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>452129.48540312797</c:v>
+                  <c:v>456737.60924878716</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>534276.42172204703</c:v>
+                  <c:v>535838.93770036101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>616423.35804095119</c:v>
+                  <c:v>614940.26615191996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>862864.16699769348</c:v>
+                  <c:v>852244.25150664151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1273598.848592259</c:v>
+                  <c:v>1247750.8937644958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1684333.5301868245</c:v>
+                  <c:v>1643257.5360223502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2095068.21178139</c:v>
+                  <c:v>2038764.1782802045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2505802.8933759555</c:v>
+                  <c:v>2434270.8205380589</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2916537.574970521</c:v>
+                  <c:v>2829777.4627959132</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3327272.2565650865</c:v>
+                  <c:v>3225284.1050537676</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3738006.9381596521</c:v>
+                  <c:v>3620790.7473116219</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4230888.5560731366</c:v>
+                  <c:v>4095398.7180210501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +905,7 @@
                   <c:v>0.72374057525507995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.08139675396051</c:v>
+                  <c:v>0.16039476788786899</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.50022626529609804</c:v>
@@ -2584,7 +2584,7 @@
   <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H15" ca="1" si="0">C4*$E$26 + $E$25</f>
-        <v>452129.48540312797</v>
+        <v>456737.60924878716</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>534276.42172204703</v>
+        <v>535838.93770036101</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>616423.35804095119</v>
+        <v>614940.26615191996</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>862864.16699769348</v>
+        <v>852244.25150664151</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>1273598.848592259</v>
+        <v>1247750.8937644958</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>1684333.5301868245</v>
+        <v>1643257.5360223502</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>2095068.21178139</v>
+        <v>2038764.1782802045</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>2505802.8933759555</v>
+        <v>2434270.8205380589</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>2916537.574970521</v>
+        <v>2829777.4627959132</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>3327272.2565650865</v>
+        <v>3225284.1050537676</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2846,20 +2846,20 @@
         <v>57.1</v>
       </c>
       <c r="D14">
-        <v>3473600</v>
+        <v>3554240</v>
       </c>
       <c r="E14">
-        <v>101637</v>
+        <v>15075</v>
       </c>
       <c r="F14">
-        <v>1.08139675396051</v>
+        <v>0.16039476788786899</v>
       </c>
       <c r="G14">
         <v>32</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>3738006.9381596521</v>
+        <v>3620790.7473116219</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>4230888.5560731366</v>
+        <v>4095398.7180210501</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>21.305172905257692</v>
+        <v>71.352992642696719</v>
       </c>
       <c r="F22" t="str">
         <f ca="1"/>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>1.9063263377583666E-2</v>
+        <v>2.4279498868199068E-11</v>
       </c>
       <c r="F23" t="str">
         <f ca="1"/>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>-43167893.699939728</v>
+        <v>-41546067.798535347</v>
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>285607.65591682366</v>
+        <v>172287.40961821459</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
@@ -2974,11 +2974,11 @@
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>821469.36318913102</v>
+        <v>791013.28451570868</v>
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>5358.9991927016235</v>
+        <v>3228.0765325599432</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="E32">
         <f ca="1">-E25/E26</f>
-        <v>52.549608828200412</v>
+        <v>52.522591733679391</v>
       </c>
     </row>
   </sheetData>

--- a/Bias voltage.xlsx
+++ b/Bias voltage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5535633be59a0d3/Documents/GitHub/testinator-of-doom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48C7F8C5-1E64-49D2-9C54-7E90E5F65D1D}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D1D9A1A2-7EE9-447F-9616-3DC4DA53A955}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Votlage</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>do R again but with errors</t>
   </si>
 </sst>
 </file>
@@ -2581,18 +2584,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H32"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3003,6 +3007,11 @@
       <c r="E32">
         <f ca="1">-E25/E26</f>
         <v>52.522591733679391</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bias voltage.xlsx
+++ b/Bias voltage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5535633be59a0d3/Documents/GitHub/testinator-of-doom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D1D9A1A2-7EE9-447F-9616-3DC4DA53A955}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="11_F25DC773A252ABDACC1048C0A19A5A525ADE58EC" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{96F68BC3-C436-4043-8A2D-378A9A6F2F66}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7620" yWindow="5010" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Votlage</t>
   </si>
@@ -406,40 +406,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>456737.60924878716</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>535838.93770036101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>614940.26615191996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>852244.25150664151</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1247750.8937644958</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1643257.5360223502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2038764.1782802045</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2434270.8205380589</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2829777.4627959132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3225284.1050537676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3620790.7473116219</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4095398.7180210501</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,6 +1110,724 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$44:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>53.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$44:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>446302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>578395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>602701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>863095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1268327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1667756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2071383</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2523908</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2801284</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3155739</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3594844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4109390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8244-4742-B541-5D79C384A487}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1009433391"/>
+        <c:axId val="1009430063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1009433391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1009430063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1009430063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1009433391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$44:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>53.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$44:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.878769982092E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26850908160603898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14542484856184101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20677237989356101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.200914736260109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18812510639087501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35018145475169299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.260243682834021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19186008652342801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40210021959174003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43584976281912902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9856568854151803E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B637-4126-B1D4-9778AF548924}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1059711023"/>
+        <c:axId val="1059709359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1059711023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1059709359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1059709359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1059711023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1190,6 +1908,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1707,6 +2505,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2291,6 +4121,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD43C8A-371B-41AB-9CCA-8AA3B3EDB579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA7258E-1CF3-4C5C-BF94-68A0ED55A6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2584,10 +4486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H37"/>
+  <dimension ref="A2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,7 +4498,7 @@
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2648,9 +4550,9 @@
       <c r="G4">
         <v>40</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="e">
         <f t="shared" ref="H4:H15" ca="1" si="0">C4*$E$26 + $E$25</f>
-        <v>456737.60924878716</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,9 +4571,9 @@
       <c r="G5">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>535838.93770036101</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2690,9 +4592,9 @@
       <c r="G6">
         <v>40</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>614940.26615191996</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2711,9 +4613,9 @@
       <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>852244.25150664151</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2732,9 +4634,9 @@
       <c r="G8">
         <v>40</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1247750.8937644958</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2753,9 +4655,9 @@
       <c r="G9">
         <v>32</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1643257.5360223502</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2774,9 +4676,9 @@
       <c r="G10">
         <v>32</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2038764.1782802045</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2795,9 +4697,9 @@
       <c r="G11">
         <v>32</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2434270.8205380589</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,9 +4721,9 @@
       <c r="G12">
         <v>32</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2829777.4627959132</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2840,9 +4742,9 @@
       <c r="G13">
         <v>32</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3225284.1050537676</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,9 +4763,9 @@
       <c r="G14">
         <v>32</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3620790.7473116219</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2882,107 +4784,107 @@
       <c r="G15">
         <v>32</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4095398.7180210501</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" t="str">
+      <c r="D20" t="e">
         <f t="array" aca="1" ref="D20:F26" ca="1">[1]!POLYNOMIAL.FIT(1,C4:C15,D4:D15,E4:E15)</f>
-        <v>Points</v>
-      </c>
-      <c r="E20">
+        <v>#REF!</v>
+      </c>
+      <c r="E20" t="e">
         <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="F20" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F20" t="e">
         <f ca="1"/>
-        <v xml:space="preserve"> </v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" t="str">
+      <c r="D21" t="e">
         <f ca="1"/>
-        <v>DegFreedom</v>
-      </c>
-      <c r="E21">
+        <v>#REF!</v>
+      </c>
+      <c r="E21" t="e">
         <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="F21" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F21" t="e">
         <f ca="1"/>
-        <v xml:space="preserve"> </v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="str">
+      <c r="D22" t="e">
         <f ca="1"/>
-        <v>ChiSquared</v>
-      </c>
-      <c r="E22">
+        <v>#REF!</v>
+      </c>
+      <c r="E22" t="e">
         <f ca="1"/>
-        <v>71.352992642696719</v>
-      </c>
-      <c r="F22" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F22" t="e">
         <f ca="1"/>
-        <v xml:space="preserve"> </v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" t="str">
+      <c r="D23" t="e">
         <f ca="1"/>
-        <v>ProbChi</v>
-      </c>
-      <c r="E23">
+        <v>#REF!</v>
+      </c>
+      <c r="E23" t="e">
         <f ca="1"/>
-        <v>2.4279498868199068E-11</v>
-      </c>
-      <c r="F23" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F23" t="e">
         <f ca="1"/>
-        <v xml:space="preserve"> </v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" t="str">
+      <c r="D24" t="e">
         <f ca="1"/>
-        <v>CoeffNo</v>
-      </c>
-      <c r="E24" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E24" t="e">
         <f ca="1"/>
-        <v>Value</v>
-      </c>
-      <c r="F24" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F24" t="e">
         <f ca="1"/>
-        <v>Uncertainty</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25">
+      <c r="D25" t="e">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25">
+        <v>#REF!</v>
+      </c>
+      <c r="E25" t="e">
         <f ca="1"/>
-        <v>-41546067.798535347</v>
-      </c>
-      <c r="F25">
+        <v>#REF!</v>
+      </c>
+      <c r="F25" t="e">
         <f ca="1"/>
-        <v>172287.40961821459</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26">
+      <c r="D26" t="e">
         <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="E26">
+        <v>#REF!</v>
+      </c>
+      <c r="E26" t="e">
         <f ca="1"/>
-        <v>791013.28451570868</v>
-      </c>
-      <c r="F26">
+        <v>#REF!</v>
+      </c>
+      <c r="F26" t="e">
         <f ca="1"/>
-        <v>3228.0765325599432</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
@@ -3004,19 +4906,251 @@
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="e">
         <f ca="1">-E25/E26</f>
-        <v>52.522591733679391</v>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>53.1</v>
+      </c>
+      <c r="E44">
+        <v>446302</v>
+      </c>
+      <c r="F44">
+        <v>1133</v>
+      </c>
+      <c r="G44">
+        <v>1.878769982092E-2</v>
+      </c>
+      <c r="H44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>53.2</v>
+      </c>
+      <c r="E45">
+        <v>578395</v>
+      </c>
+      <c r="F45">
+        <v>21860</v>
+      </c>
+      <c r="G45">
+        <v>0.26850908160603898</v>
+      </c>
+      <c r="H45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>53.3</v>
+      </c>
+      <c r="E46">
+        <v>602701</v>
+      </c>
+      <c r="F46">
+        <v>9604</v>
+      </c>
+      <c r="G46">
+        <v>0.14542484856184101</v>
+      </c>
+      <c r="H46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>53.6</v>
+      </c>
+      <c r="E47">
+        <v>863095</v>
+      </c>
+      <c r="F47">
+        <v>13153</v>
+      </c>
+      <c r="G47">
+        <v>0.20677237989356101</v>
+      </c>
+      <c r="H47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>54.1</v>
+      </c>
+      <c r="E48">
+        <v>1268327</v>
+      </c>
+      <c r="F48">
+        <v>19579</v>
+      </c>
+      <c r="G48">
+        <v>0.200914736260109</v>
+      </c>
+      <c r="H48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>54.6</v>
+      </c>
+      <c r="E49">
+        <v>1667756</v>
+      </c>
+      <c r="F49">
+        <v>18819</v>
+      </c>
+      <c r="G49">
+        <v>0.18812510639087501</v>
+      </c>
+      <c r="H49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>55.1</v>
+      </c>
+      <c r="E50">
+        <v>2071383</v>
+      </c>
+      <c r="F50">
+        <v>30885</v>
+      </c>
+      <c r="G50">
+        <v>0.35018145475169299</v>
+      </c>
+      <c r="H50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>55.6</v>
+      </c>
+      <c r="E51">
+        <v>2523908</v>
+      </c>
+      <c r="F51">
+        <v>15712</v>
+      </c>
+      <c r="G51">
+        <v>0.260243682834021</v>
+      </c>
+      <c r="H51">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>56.1</v>
+      </c>
+      <c r="E52">
+        <v>2801284</v>
+      </c>
+      <c r="F52">
+        <v>26534</v>
+      </c>
+      <c r="G52">
+        <v>0.19186008652342801</v>
+      </c>
+      <c r="H52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>56.6</v>
+      </c>
+      <c r="E53">
+        <v>3155739</v>
+      </c>
+      <c r="F53">
+        <v>40683</v>
+      </c>
+      <c r="G53">
+        <v>0.40210021959174003</v>
+      </c>
+      <c r="H53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>57.1</v>
+      </c>
+      <c r="E54">
+        <v>3594844</v>
+      </c>
+      <c r="F54">
+        <v>40964</v>
+      </c>
+      <c r="G54">
+        <v>0.43584976281912902</v>
+      </c>
+      <c r="H54">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>57.7</v>
+      </c>
+      <c r="E55">
+        <v>4109390</v>
+      </c>
+      <c r="F55">
+        <v>8541</v>
+      </c>
+      <c r="G55">
+        <v>8.9856568854151803E-2</v>
+      </c>
+      <c r="H55">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="E42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
